--- a/biology/Botanique/Forêt_domaniale_du_littoral/Forêt_domaniale_du_littoral.xlsx
+++ b/biology/Botanique/Forêt_domaniale_du_littoral/Forêt_domaniale_du_littoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_du_littoral</t>
+          <t>Forêt_domaniale_du_littoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Forêt domaniale du littoral est un domaine privé de l’État en Martinique et Guadeloupe issu de la Zone des cinquante pas géométriques. Il s’agit d'espaces naturels ouvert à la fréquentation du public. Ce domaine est gérée par l’Office national des forêts (ONF).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_du_littoral</t>
+          <t>Forêt_domaniale_du_littoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Martinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En Martinique, la Forêt domaniale du littoral couvre 1 826 hectares[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En Martinique, la Forêt domaniale du littoral couvre 1 826 hectares :
 la grande anse des Salines : voir plage des Salines - Sainte-Anne (Martinique) ;
 l'anse Michel - Sainte-Anne (Martinique) ;
 Dizac - Le Diamant.</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_du_littoral</t>
+          <t>Forêt_domaniale_du_littoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Guadeloupe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir le site de l'ONF Guadeloupe
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_du_littoral</t>
+          <t>Forêt_domaniale_du_littoral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Essences fréquentes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cocotier
 Poirier-Pays 
